--- a/ele/MainBoard/parts.xlsx
+++ b/ele/MainBoard/parts.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\ele\MainBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\_Track\RB3204-RBCX\ele\MainBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F994D6A-9CE5-4A76-8DBB-EEBC61B53E29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{A2FA1E75-360B-42C9-9C43-1BA14805618E}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="9720" windowHeight="11985"/>
   </bookViews>
   <sheets>
-    <sheet name="JLC" sheetId="8" r:id="rId1"/>
-    <sheet name="Modules" sheetId="5" r:id="rId2"/>
-    <sheet name="THTs" sheetId="6" r:id="rId3"/>
-    <sheet name="Pinheads" sheetId="7" r:id="rId4"/>
+    <sheet name="JLC" sheetId="1" r:id="rId1"/>
+    <sheet name="Modules" sheetId="2" r:id="rId2"/>
+    <sheet name="THTs" sheetId="3" r:id="rId3"/>
+    <sheet name="Pinheads" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Jaroslav PARAL - Personal View" guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,19 +35,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jaroslav PARAL</author>
+  </authors>
+  <commentList>
+    <comment ref="T1" authorId="0" guid="{D5CEE670-0CC2-4035-BB6E-7BD07C678BF3}" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaroslav PARAL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Suma of pcs required for one PCB * price + price for pads</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{683F1C60-12A9-4D0E-B004-C75D4DA87A9E}" keepAlive="1" name="Dotaz – parts" description="Připojení k dotazu produktu parts v sešitě" type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Dotaz – parts" description="Připojení k dotazu produktu parts v sešitě" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=parts;Extended Properties=&quot;&quot;" command="SELECT * FROM [parts]"/>
   </connection>
-  <connection id="2" xr16:uid="{0B2A465F-012C-443C-9F4C-E6F985088256}" keepAlive="1" name="Dotaz – RBCX-MainBoard" description="Připojení k dotazu produktu RBCX-MainBoard v sešitě" type="5" refreshedVersion="6" background="1">
+  <connection id="2" keepAlive="1" name="Dotaz – RBCX-MainBoard" description="Připojení k dotazu produktu RBCX-MainBoard v sešitě" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=RBCX-MainBoard;Extended Properties=&quot;&quot;" command="SELECT * FROM [RBCX-MainBoard]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="352">
   <si>
     <t>ID</t>
   </si>
@@ -233,9 +269,6 @@
     <t>40V 1A 600mV @ 1A SOD-123 Schottky Barrier Diodes (SBD) RoHS</t>
   </si>
   <si>
-    <t>C305445</t>
-  </si>
-  <si>
     <t>Foshan Blue Rocket Elec</t>
   </si>
   <si>
@@ -620,9 +653,6 @@
     <t>8MHz</t>
   </si>
   <si>
-    <t>32kHz</t>
-  </si>
-  <si>
     <t>C78265</t>
   </si>
   <si>
@@ -644,9 +674,6 @@
     <t>SMA,DO-214AC</t>
   </si>
   <si>
-    <t>40V 3A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
-  </si>
-  <si>
     <t>40V 200mA 1000mV @ 40mA SOT-23 Dual Schottky Barrier Diodes (SBD) common cathode RoHS</t>
   </si>
   <si>
@@ -821,9 +848,6 @@
     <t>1206W4F0000T5E</t>
   </si>
   <si>
-    <t>CHIP RESISTOR</t>
-  </si>
-  <si>
     <t>C0G</t>
   </si>
   <si>
@@ -848,9 +872,6 @@
     <t>CHIP RESISTOR 0R - JUMPER (MAX 2A, 10 A peak)</t>
   </si>
   <si>
-    <t>CURRENT SENCE CHIP RESISTOR 1W</t>
-  </si>
-  <si>
     <t>C25104</t>
   </si>
   <si>
@@ -1080,16 +1101,53 @@
   </si>
   <si>
     <t>CPOL-EUE5-10.5 220uF 25V</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>C8598</t>
+  </si>
+  <si>
+    <t>40V 3A 400mV @ 1A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
+  </si>
+  <si>
+    <t>32.768Hz</t>
+  </si>
+  <si>
+    <t>CHIP RESISTOR ±1% 1/16W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENT SENCE CHIP RESISTOR ±1% 1W </t>
+  </si>
+  <si>
+    <t>Price if 50 PCB</t>
+  </si>
+  <si>
+    <t>Pcs for 50 PCB</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32821900056.html?spm=a2g0s.9042311.0.0.27424c4d7QpKiR</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33042530151.html?spm=a2g0o.detail.1000060.3.413116e3UwnGSp&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.14977.161855.0&amp;scm_id=1007.14977.161855.0&amp;scm-url=1007.14977.161855.0&amp;pvid=e7acc9bf-7b2c-452a-9ec7-bda6f01c289c&amp;_t=gps-id:pcDetailBottomMoreThisSeller,scm-url:1007.14977.161855.0,pvid:e7acc9bf-7b2c-452a-9ec7-bda6f01c289c,tpp_buckets:668%230%23165478%2314_668%23808%234093%23880_668%23888%233325%234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1106,6 +1164,19 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1139,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1155,9 +1226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1170,6 +1245,697 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" diskRevisions="1" revisionId="89" version="4">
+  <header guid="{08FCBB00-DC5A-40BD-80BF-EC6CE43DA19E}" dateTime="2020-03-28T18:14:29" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1748B5B3-A782-4C1C-9621-94605AD6F297}" dateTime="2020-03-28T18:14:53" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId2" minRId="1">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD5D90DF-6B85-4BA1-BBFC-34AFB2C32459}" dateTime="2020-03-29T21:24:46" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId3" minRId="2" maxRId="81">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+    <reviewedList count="1">
+      <reviewed rId="2"/>
+    </reviewedList>
+  </header>
+  <header guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" dateTime="2020-03-29T21:48:07" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId4" minRId="82" maxRId="89">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1" numFmtId="11">
+    <nc r="P15">
+      <v>43</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="2" ua="1" sId="1">
+    <nc r="P15"/>
+  </rcc>
+  <rcft rId="1" ua="1" sheetId="1"/>
+  <rcc rId="3" sId="1">
+    <oc r="H4">
+      <v>17</v>
+    </oc>
+    <nc r="H4">
+      <v>16</v>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1" numFmtId="11">
+    <oc r="K5">
+      <v>0.123</v>
+    </oc>
+    <nc r="K5"/>
+  </rcc>
+  <rcc rId="5" sId="1" numFmtId="11">
+    <nc r="R6">
+      <v>0.1203</v>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1" numFmtId="11">
+    <oc r="J7">
+      <v>2.3599999999999999E-2</v>
+    </oc>
+    <nc r="J7">
+      <v>2.18E-2</v>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1" numFmtId="11">
+    <oc r="O7">
+      <v>1.1299999999999999E-2</v>
+    </oc>
+    <nc r="O7">
+      <v>1.04E-2</v>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1" numFmtId="19">
+    <oc r="S7">
+      <v>43915</v>
+    </oc>
+    <nc r="S7">
+      <v>43918</v>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1" xfDxf="1" dxf="1">
+    <oc r="F8" t="inlineStr">
+      <is>
+        <t>C305445</t>
+      </is>
+    </oc>
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>C8598</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <oc r="W11" t="inlineStr">
+      <is>
+        <t>40V 3A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
+      </is>
+    </oc>
+    <nc r="W11" t="inlineStr">
+      <is>
+        <t>40V 3A 400mV @ 1A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <oc r="C17" t="inlineStr">
+      <is>
+        <t>32kHz</t>
+      </is>
+    </oc>
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>32.768Hz</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <oc r="W29" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W29" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <oc r="W27" t="inlineStr">
+      <is>
+        <t>CURRENT SENCE CHIP RESISTOR 1W</t>
+      </is>
+    </oc>
+    <nc r="W27" t="inlineStr">
+      <is>
+        <t xml:space="preserve">CURRENT SENCE CHIP RESISTOR ±1% 1W </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="1">
+    <oc r="W28" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W28" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="1">
+    <oc r="W30" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W30" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="1">
+    <oc r="W31" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W31" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="1">
+    <oc r="W32" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W32" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="1">
+    <oc r="W33" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W33" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <oc r="W34" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W34" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="1">
+    <oc r="W35" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W35" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="1">
+    <oc r="W36" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR</t>
+      </is>
+    </oc>
+    <nc r="W36" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="22" sId="1" ref="U1:U1048576" action="insertCol"/>
+  <rrc rId="23" sId="1" ref="U1:U1048576" action="insertCol"/>
+  <rcc rId="24" sId="1">
+    <nc r="U2">
+      <f>A2*50</f>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U1:U1048576">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="25" sId="1">
+    <nc r="U3">
+      <f>A3*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="1">
+    <nc r="U4">
+      <f>A4*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="1">
+    <nc r="U5">
+      <f>A5*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="1">
+    <nc r="U6">
+      <f>A6*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="1">
+    <nc r="U7">
+      <f>A7*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="1">
+    <nc r="U8">
+      <f>A8*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="1">
+    <nc r="U9">
+      <f>A9*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="1">
+    <nc r="U10">
+      <f>A10*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="1">
+    <nc r="U11">
+      <f>A11*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="1">
+    <nc r="U12">
+      <f>A12*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="1">
+    <nc r="U13">
+      <f>A13*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="1">
+    <nc r="U14">
+      <f>A14*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="1">
+    <nc r="U15">
+      <f>A15*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="1">
+    <nc r="U16">
+      <f>A16*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="1">
+    <nc r="U17">
+      <f>A17*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="1">
+    <nc r="U18">
+      <f>A18*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="1">
+    <nc r="U19">
+      <f>A19*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="1">
+    <nc r="U20">
+      <f>A20*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="1">
+    <nc r="U21">
+      <f>A21*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="1">
+    <nc r="U22">
+      <f>A22*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="1">
+    <nc r="U23">
+      <f>A23*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="1">
+    <nc r="U24">
+      <f>A24*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="1">
+    <nc r="U25">
+      <f>A25*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="1">
+    <nc r="U26">
+      <f>A26*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="1">
+    <nc r="U27">
+      <f>A27*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="1">
+    <nc r="U28">
+      <f>A28*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="1">
+    <nc r="U29">
+      <f>A29*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="1">
+    <nc r="U30">
+      <f>A30*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="1">
+    <nc r="U31">
+      <f>A31*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="1">
+    <nc r="U32">
+      <f>A32*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="1">
+    <nc r="U33">
+      <f>A33*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="1">
+    <nc r="U34">
+      <f>A34*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="1">
+    <nc r="U35">
+      <f>A35*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <nc r="U36">
+      <f>A36*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="1" numFmtId="11">
+    <nc r="K2">
+      <v>2.4287000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="1" numFmtId="11">
+    <nc r="M2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="1" numFmtId="11">
+    <nc r="N2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1" numFmtId="11">
+    <nc r="O2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="1" numFmtId="11">
+    <nc r="P2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="1" numFmtId="11">
+    <nc r="Q2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="1" numFmtId="11">
+    <nc r="R2">
+      <v>2.0653000000000001</v>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="1">
+    <nc r="V2">
+      <f>IF(U2&lt;10,J2,IF(U2&lt;30,K2,IF(U2&lt;50,L2,IF(U2&lt;100,M2,IF(U2&lt;200,N2,IF(U2&lt;500,O2,IF(U2&lt;1000,P2,IF(U2&lt;2000,Q2,R2))))))))</f>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="1">
+    <nc r="U1" t="inlineStr">
+      <is>
+        <t>Pcs for 50 PCB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="68" sId="2" ref="C1:C1048576" action="insertCol"/>
+  <rcc rId="69" sId="2">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>PRICE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="2">
+    <nc r="E1" t="inlineStr">
+      <is>
+        <t>PRICE_DATE</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="E1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="71" sId="2" ref="D1:D1048576" action="insertCol"/>
+  <rm rId="72" sheetId="2" source="F1:F1048576" destination="D1:D1048576" sourceSheetId="2">
+    <rfmt sheetId="2" xfDxf="1" sqref="D1:D1048576" start="0" length="0"/>
+    <rfmt sheetId="2" sqref="D1" start="0" length="0">
+      <dxf>
+        <font>
+          <b/>
+          <sz val="11"/>
+          <color theme="1"/>
+          <name val="Calibri"/>
+          <scheme val="minor"/>
+        </font>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rrc rId="73" sId="2" ref="F1:F1048576" action="deleteCol">
+    <rfmt sheetId="2" xfDxf="1" sqref="F1:F1048576" start="0" length="0"/>
+  </rrc>
+  <rcc rId="74" sId="2">
+    <nc r="C2">
+      <v>0.55000000000000004</v>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="D2">
+      <v>43919</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="76" sId="2">
+    <nc r="F1" t="inlineStr">
+      <is>
+        <t>URL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="F1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="77" sId="2" xfDxf="1" dxf="1">
+    <nc r="F2" t="inlineStr">
+      <is>
+        <t>https://www.aliexpress.com/item/32821900056.html?spm=a2g0s.9042311.0.0.27424c4d7QpKiR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="2" sqref="C1:C1048576">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="78" sId="2" numFmtId="11">
+    <nc r="C3">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="79" sId="2" odxf="1" dxf="1" numFmtId="19">
+    <nc r="D3">
+      <v>43919</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="80" sId="2" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>https://www.aliexpress.com/item/33042530151.html?spm=a2g0o.detail.1000060.3.413116e3UwnGSp&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.14977.161855.0&amp;scm_id=1007.14977.161855.0&amp;scm-url=1007.14977.161855.0&amp;pvid=e7acc9bf-7b2c-452a-9ec7-bda6f01c289c&amp;_t=gps-id:pcDetailBottomMoreThisSeller,scm-url:1007.14977.161855.0,pvid:e7acc9bf-7b2c-452a-9ec7-bda6f01c289c,tpp_buckets:668%230%23165478%2314_668%23808%234093%23880_668%23888%233325%234</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="1">
+    <nc r="V1" t="inlineStr">
+      <is>
+        <t>Price if 50 PCB</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="82" sId="1">
+    <nc r="I37">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rrc rId="83" sId="1" eol="1" ref="A38:XFD38" action="insertRow"/>
+  <rcc rId="84" sId="1">
+    <nc r="I38">
+      <f>3*I37</f>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="I38">
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="I38">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H38" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="85" sId="1" numFmtId="11">
+    <nc r="H38">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rrc rId="86" sId="1" eol="1" ref="A39:XFD39" action="insertRow"/>
+  <rcc rId="87" sId="1" odxf="1" dxf="1">
+    <nc r="I39">
+      <f>SUM(H38:I38)</f>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="88" sId="1" eol="1" ref="A40:XFD40" action="insertRow"/>
+  <rcc rId="89" sId="1" odxf="1" dxf="1">
+    <nc r="I40">
+      <f>I39/50</f>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,16 +2234,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B9D2D2-C174-4325-B8A8-572CE9E5B354}">
-  <dimension ref="A1:V36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
@@ -1490,10 +2257,13 @@
     <col min="14" max="16" width="9.5703125" customWidth="1"/>
     <col min="17" max="18" width="10.5703125" customWidth="1"/>
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1552,36 +2322,45 @@
         <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>165</v>
-      </c>
       <c r="F2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -1592,42 +2371,68 @@
       <c r="J2" s="5">
         <v>2.4287000000000001</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5">
+        <v>2.4287000000000001</v>
+      </c>
       <c r="L2" s="5">
         <v>2.0653000000000001</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="M2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="N2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="O2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="P2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="R2" s="5">
+        <v>2.0653000000000001</v>
+      </c>
       <c r="S2" s="2">
         <v>43917</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T2" s="9">
+        <f t="shared" ref="T2:T36" si="0">A2*J2+ (A2*H2*0.0015)</f>
+        <v>2.5787</v>
+      </c>
+      <c r="U2" s="11">
+        <f>A2*50</f>
+        <v>50</v>
+      </c>
+      <c r="V2" s="9">
+        <f>IF(U2&lt;10,J2,IF(U2&lt;30,K2,IF(U2&lt;50,L2,IF(U2&lt;100,M2,IF(U2&lt;200,N2,IF(U2&lt;500,O2,IF(U2&lt;1000,P2,IF(U2&lt;2000,Q2,R2))))))))</f>
+        <v>2.0653000000000001</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
         <v>183</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1636,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="5">
         <v>0.39429999999999998</v>
@@ -1664,38 +2469,47 @@
       <c r="S3" s="2">
         <v>43917</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="9">
+        <f t="shared" si="0"/>
+        <v>3.2143999999999999</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" ref="U3:U36" si="1">A3*50</f>
+        <v>400</v>
+      </c>
+      <c r="V3" s="9"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J4" s="5">
         <v>0.51549999999999996</v>
@@ -1713,12 +2527,21 @@
       <c r="S4" s="2">
         <v>43917</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="9">
+        <f t="shared" si="0"/>
+        <v>1.079</v>
+      </c>
+      <c r="U4" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1732,13 +2555,13 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -1749,9 +2572,7 @@
       <c r="J5" s="5">
         <v>0.123</v>
       </c>
-      <c r="K5" s="5">
-        <v>0.123</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5">
@@ -1764,41 +2585,50 @@
       <c r="S5" s="2">
         <v>43917</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.129</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V5" s="9"/>
+      <c r="W5">
         <v>3.3</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="6"/>
+      <c r="Y5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" t="s">
         <v>152</v>
-      </c>
-      <c r="F6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
       </c>
       <c r="H6">
         <v>8</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J6" s="5">
         <v>0.1928</v>
@@ -1820,16 +2650,27 @@
       <c r="Q6" s="5">
         <v>0.12180000000000001</v>
       </c>
-      <c r="R6" s="5"/>
+      <c r="R6" s="5">
+        <v>0.1203</v>
+      </c>
       <c r="S6" s="2">
         <v>43915</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="U6" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V6" s="9"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1858,27 +2699,36 @@
         <v>39</v>
       </c>
       <c r="J7" s="5">
-        <v>2.3599999999999999E-2</v>
+        <v>2.18E-2</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5">
-        <v>1.1299999999999999E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="2">
-        <v>43915</v>
-      </c>
-      <c r="U7" s="6"/>
-      <c r="V7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>43918</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="U7" s="11">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="V7" s="9"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1892,13 +2742,13 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1922,29 +2772,38 @@
       <c r="S8" s="2">
         <v>43907</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" t="s">
+      <c r="T8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14880000000000002</v>
+      </c>
+      <c r="U8" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="V8" s="9"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -1953,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J9" s="5">
         <v>3.3799999999999997E-2</v>
@@ -1971,29 +2830,38 @@
       <c r="S9" s="2">
         <v>43917</v>
       </c>
-      <c r="U9" s="6"/>
-      <c r="V9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.49789999999999995</v>
+      </c>
+      <c r="U9" s="11">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -2002,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J10" s="5">
         <v>2.93E-2</v>
@@ -2020,32 +2888,41 @@
       <c r="S10" s="2">
         <v>43917</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T10" s="9">
+        <f t="shared" si="0"/>
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="U10" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="s">
         <v>196</v>
-      </c>
-      <c r="F11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" t="s">
-        <v>198</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2069,32 +2946,41 @@
       <c r="S11" s="2">
         <v>43917</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.40150000000000008</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" t="s">
         <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
-        <v>206</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2118,32 +3004,41 @@
       <c r="S12" s="2">
         <v>43917</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T12" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4500000000000007E-2</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="V12" s="9"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2167,32 +3062,41 @@
       <c r="S13" s="2">
         <v>43917</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T13" s="9">
+        <f t="shared" si="0"/>
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2216,32 +3120,41 @@
       <c r="S14" s="2">
         <v>43917</v>
       </c>
-      <c r="U14" s="6"/>
-      <c r="V14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="U14" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V14" s="9"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2265,12 +3178,21 @@
       <c r="S15" s="2">
         <v>43917</v>
       </c>
-      <c r="U15" s="6"/>
-      <c r="V15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.92E-2</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2278,13 +3200,13 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
         <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
         <v>53</v>
@@ -2314,12 +3236,21 @@
       <c r="S16" s="2">
         <v>43917</v>
       </c>
-      <c r="U16" s="6"/>
-      <c r="V16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.17369999999999999</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2327,7 +3258,7 @@
         <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -2363,38 +3294,47 @@
       <c r="S17" s="2">
         <v>43917</v>
       </c>
-      <c r="U17" s="6"/>
-      <c r="V17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="U17" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>76</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J18" s="5">
         <v>0.1305</v>
@@ -2422,32 +3362,41 @@
       <c r="S18" s="2">
         <v>43917</v>
       </c>
-      <c r="U18" s="6"/>
-      <c r="V18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="U18" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2471,37 +3420,46 @@
       <c r="S19" s="2">
         <v>43917</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="9">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="U19" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19">
         <v>50</v>
       </c>
-      <c r="U19" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="V19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X19" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" t="s">
         <v>250</v>
       </c>
-      <c r="D20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E20" t="s">
-        <v>251</v>
-      </c>
-      <c r="F20" t="s">
-        <v>253</v>
-      </c>
       <c r="G20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2525,37 +3483,46 @@
       <c r="S20" s="2">
         <v>43917</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="9">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000009E-3</v>
+      </c>
+      <c r="U20" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20">
         <v>50</v>
       </c>
-      <c r="U20" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="V20" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2579,37 +3546,46 @@
       <c r="S21" s="2">
         <v>43917</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2600000000000002E-2</v>
+      </c>
+      <c r="U21" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21">
         <v>50</v>
       </c>
-      <c r="U21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="V21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" t="s">
         <v>231</v>
       </c>
-      <c r="D22" t="s">
-        <v>234</v>
-      </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2633,37 +3609,46 @@
       <c r="S22" s="2">
         <v>43917</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10220000000000001</v>
+      </c>
+      <c r="U22" s="11">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="V22" s="9"/>
+      <c r="W22">
         <v>16</v>
       </c>
-      <c r="U22" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="V22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2687,34 +3672,43 @@
       <c r="S23" s="2">
         <v>43917</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U23" s="11">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="V23" s="9"/>
+      <c r="W23">
         <v>25</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="X23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2741,34 +3735,43 @@
       <c r="S24" s="2">
         <v>43917</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="U24" s="11">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24">
         <v>16</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="X24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V24" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2795,37 +3798,46 @@
       <c r="S25" s="2">
         <v>43917</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25">
         <v>25</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="X25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="V25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
       </c>
       <c r="D26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E26" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" t="s">
         <v>257</v>
       </c>
-      <c r="E26" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" t="s">
-        <v>261</v>
-      </c>
       <c r="G26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2849,38 +3861,47 @@
       <c r="S26" s="2">
         <v>43917</v>
       </c>
-      <c r="U26" s="7"/>
-      <c r="V26" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T26" s="9">
+        <f t="shared" si="0"/>
+        <v>4.4800000000000006E-2</v>
+      </c>
+      <c r="U26" s="11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="V26" s="9"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C27" t="s">
         <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H27">
         <v>2</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="5">
         <v>7.9399999999999998E-2</v>
@@ -2898,29 +3919,38 @@
       <c r="S27" s="2">
         <v>43917</v>
       </c>
-      <c r="U27" s="7"/>
-      <c r="V27" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.65920000000000001</v>
+      </c>
+      <c r="U27" s="11">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -2947,29 +3977,38 @@
       <c r="S28" s="2">
         <v>43917</v>
       </c>
-      <c r="U28" s="7"/>
-      <c r="V28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="U28" s="11">
+        <f t="shared" si="1"/>
+        <v>2650</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E29" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -2996,29 +4035,38 @@
       <c r="S29" s="2">
         <v>43917</v>
       </c>
-      <c r="U29" s="7"/>
-      <c r="V29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T29" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3400000000000004E-2</v>
+      </c>
+      <c r="U29" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3045,29 +4093,38 @@
       <c r="S30" s="2">
         <v>43917</v>
       </c>
-      <c r="U30" s="7"/>
-      <c r="V30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T30" s="9">
+        <f t="shared" si="0"/>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="U30" s="11">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -3094,29 +4151,38 @@
       <c r="S31" s="2">
         <v>43917</v>
       </c>
-      <c r="U31" s="7"/>
-      <c r="V31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T31" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -3143,29 +4209,38 @@
       <c r="S32" s="2">
         <v>43917</v>
       </c>
-      <c r="U32" s="7"/>
-      <c r="V32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T32" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C33" t="s">
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -3192,29 +4267,38 @@
       <c r="S33" s="2">
         <v>43917</v>
       </c>
-      <c r="U33" s="7"/>
-      <c r="V33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T33" s="9">
+        <f t="shared" si="0"/>
+        <v>2.3400000000000004E-2</v>
+      </c>
+      <c r="U33" s="11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="V33" s="9"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
@@ -3241,29 +4325,38 @@
       <c r="S34" s="2">
         <v>43917</v>
       </c>
-      <c r="U34" s="7"/>
-      <c r="V34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T34" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="U34" s="11">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="V34" s="9"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -3290,29 +4383,38 @@
       <c r="S35" s="2">
         <v>43917</v>
       </c>
-      <c r="U35" s="7"/>
-      <c r="V35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T35" s="9">
+        <f t="shared" si="0"/>
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="U35" s="11">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="V35" s="9"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C36" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3339,20 +4441,68 @@
       <c r="S36" s="2">
         <v>43917</v>
       </c>
-      <c r="U36" s="7"/>
-      <c r="V36" t="s">
-        <v>258</v>
+      <c r="T36" s="9">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="T37" s="9">
+        <f>SUM(T2:T36)</f>
+        <v>11.0793</v>
+      </c>
+      <c r="V37" s="9"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H38" s="9">
+        <v>7</v>
+      </c>
+      <c r="I38" s="9">
+        <f>3*I37</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I39" s="9">
+        <f>SUM(H38:I38)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I40" s="9">
+        <f>I39/50</f>
+        <v>0.56000000000000005</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
+      <selection activeCell="G8" sqref="G8"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE490E21-9DC7-425E-A6F7-2044E4698B2B}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -3361,51 +4511,87 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
-        <v>309</v>
+        <v>83</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43919</v>
+      </c>
+      <c r="E3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AF70B8-5F83-471D-B3E9-1BD61AC768C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3430,10 +4616,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3441,10 +4627,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,10 +4638,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,10 +4649,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3474,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3485,10 +4671,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3496,10 +4682,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3507,19 +4693,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}" topLeftCell="A3">
+      <selection activeCell="C10" sqref="C10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8121B237-C8D9-4975-A446-45038FEA8747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3533,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
@@ -3544,131 +4736,131 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>123</v>
-      </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
         <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -3676,282 +4868,282 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
         <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -3962,18 +5154,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -3984,7 +5176,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s">
         <v>27</v>
@@ -3995,32 +5187,32 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -4028,71 +5220,77 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
+      <selection sqref="A1:C1"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ele/MainBoard/parts.xlsx
+++ b/ele/MainBoard/parts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\_Track\RB3204-RBCX\ele\MainBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\ele\MainBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{99CD2A55-9FD2-4E23-8ECE-501E5F0B2B33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="9720" windowHeight="11985"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="THTs" sheetId="3" r:id="rId3"/>
     <sheet name="Pinheads" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="kubas – osobní zobrazení" guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1066" activeSheetId="1"/>
     <customWorkbookView name="Jaroslav PARAL - Personal View" guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -36,12 +38,39 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>kubas</author>
     <author>Jaroslav PARAL</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" guid="{D5CEE670-0CC2-4035-BB6E-7BD07C678BF3}" shapeId="0">
+    <comment ref="A1" authorId="0" guid="{053E3644-DF46-4E91-A804-E57003B4F9B5}" shapeId="0" xr:uid="{F9A84A5B-EABD-44F2-B673-091C0097F7C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kubas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+NOT CONSISTENT WITH SCHEMATIC
+after change of the power circuit and addition of buttons filtr capacitor.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="1" guid="{D5CEE670-0CC2-4035-BB6E-7BD07C678BF3}" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,11 +99,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Dotaz – parts" description="Připojení k dotazu produktu parts v sešitě" type="5" refreshedVersion="6" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Dotaz – parts" description="Připojení k dotazu produktu parts v sešitě" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=parts;Extended Properties=&quot;&quot;" command="SELECT * FROM [parts]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Dotaz – RBCX-MainBoard" description="Připojení k dotazu produktu RBCX-MainBoard v sešitě" type="5" refreshedVersion="6" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Dotaz – RBCX-MainBoard" description="Připojení k dotazu produktu RBCX-MainBoard v sešitě" type="5" refreshedVersion="6" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=RBCX-MainBoard;Extended Properties=&quot;&quot;" command="SELECT * FROM [RBCX-MainBoard]"/>
   </connection>
 </connections>
@@ -1142,12 +1171,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,6 +1206,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1232,7 +1274,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1248,7 +1290,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" diskRevisions="1" revisionId="89" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0FA74BC0-0743-490A-98AF-D5A1678D9E55}" diskRevisions="1" revisionId="89" version="5">
   <header guid="{08FCBB00-DC5A-40BD-80BF-EC6CE43DA19E}" dateTime="2020-03-28T18:14:29" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -1277,6 +1319,14 @@
     </reviewedList>
   </header>
   <header guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" dateTime="2020-03-29T21:48:07" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId4" minRId="82" maxRId="89">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0FA74BC0-0743-490A-98AF-D5A1678D9E55}" dateTime="2020-04-18T14:08:57" maxSheetId="5" userName="kubas" r:id="rId5">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1934,8 +1984,17 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcmt sheetId="1" cell="A1" guid="{053E3644-DF46-4E91-A804-E57003B4F9B5}" alwaysShow="1" author="kubas" newLength="112"/>
+  <rcv guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" name="kubas" id="-1003731210" dateTime="2020-04-06T17:53:41"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2234,11 +2293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,20 +4547,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}">
+      <selection activeCell="A2" sqref="A2"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
       <selection activeCell="G8" sqref="G8"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4578,6 +4642,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}">
+      <selection activeCell="B4" sqref="B4"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4588,7 +4656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4701,6 +4769,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}" topLeftCell="A3">
+      <selection activeCell="C10" sqref="C10"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}" topLeftCell="A3">
       <selection activeCell="C10" sqref="C10"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4711,7 +4783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5286,6 +5358,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}">
+      <selection sqref="A1:C1"/>
+      <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}">
       <selection sqref="A1:C1"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ele/MainBoard/parts.xlsx
+++ b/ele/MainBoard/parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\working\RB3204-RBCX\ele\MainBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{99CD2A55-9FD2-4E23-8ECE-501E5F0B2B33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{9FC7F01E-88C6-42AD-9A9C-627D40291EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <customWorkbookView name="kubas – osobní zobrazení" guid="{ECED9359-1734-47D7-B3C3-7708E1EFED96}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1066" activeSheetId="1"/>
     <customWorkbookView name="Jaroslav PARAL - Personal View" guid="{021D7215-5824-4286-91FC-F56FA6AECCD0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="357">
   <si>
     <t>ID</t>
   </si>
@@ -1166,6 +1167,21 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/33042530151.html?spm=a2g0o.detail.1000060.3.413116e3UwnGSp&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.14977.161855.0&amp;scm_id=1007.14977.161855.0&amp;scm-url=1007.14977.161855.0&amp;pvid=e7acc9bf-7b2c-452a-9ec7-bda6f01c289c&amp;_t=gps-id:pcDetailBottomMoreThisSeller,scm-url:1007.14977.161855.0,pvid:e7acc9bf-7b2c-452a-9ec7-bda6f01c289c,tpp_buckets:668%230%23165478%2314_668%23808%234093%23880_668%23888%233325%234</t>
+  </si>
+  <si>
+    <t>R118</t>
+  </si>
+  <si>
+    <t>1k5</t>
+  </si>
+  <si>
+    <t>R0403</t>
+  </si>
+  <si>
+    <t>C25867</t>
+  </si>
+  <si>
+    <t>0402WGF1501TCE</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1192,7 @@
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1235,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1290,7 +1313,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0FA74BC0-0743-490A-98AF-D5A1678D9E55}" diskRevisions="1" revisionId="89" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E20A599C-5D52-40E3-BA19-8EED18B308A9}" diskRevisions="1" revisionId="105" version="6">
   <header guid="{08FCBB00-DC5A-40BD-80BF-EC6CE43DA19E}" dateTime="2020-03-28T18:14:29" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -1334,6 +1357,14 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{E20A599C-5D52-40E3-BA19-8EED18B308A9}" dateTime="2020-04-21T12:19:19" maxSheetId="5" userName="kubas" r:id="rId6" minRId="90" maxRId="105">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -1991,9 +2022,108 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="90" sId="1" ref="A30:XFD30" action="insertRow"/>
+  <rcc rId="91" sId="1">
+    <nc r="A30">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="92" sId="1">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>R118</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="93" sId="1">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>1k5</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="94" sId="1">
+    <nc r="E30" t="inlineStr">
+      <is>
+        <t>Uniroyal Elec</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="95" sId="1">
+    <nc r="G30" t="inlineStr">
+      <is>
+        <t>R0403</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="96" sId="1">
+    <nc r="I30" t="inlineStr">
+      <is>
+        <t>NO</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="97" sId="1" numFmtId="11">
+    <nc r="J30">
+      <v>8.9999999999999998E-4</v>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="1" numFmtId="11">
+    <nc r="Q30">
+      <v>2.9999999999999997E-4</v>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="1">
+    <nc r="T30">
+      <f>A30*J30+ (A30*H30*0.0015)</f>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1">
+    <nc r="U30">
+      <f>A30*50</f>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="1">
+    <nc r="Y30" t="inlineStr">
+      <is>
+        <t>CHIP RESISTOR ±1% 1/16W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="1" numFmtId="19">
+    <nc r="S30">
+      <v>43941</v>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <nc r="H30">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <nc r="F30" t="inlineStr">
+      <is>
+        <t>C25867</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="1" xfDxf="1" dxf="1">
+    <nc r="D30" t="inlineStr">
+      <is>
+        <t>0402WGF1501TCE</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="3">
   <userInfo guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" name="kubas" id="-1003731210" dateTime="2020-04-06T17:53:41"/>
+  <userInfo guid="{0FA74BC0-0743-490A-98AF-D5A1678D9E55}" name="kubas" id="-1003696187" dateTime="2020-04-20T18:20:21"/>
+  <userInfo guid="{E20A599C-5D52-40E3-BA19-8EED18B308A9}" name="kubas" id="-1003713540" dateTime="2020-04-21T11:54:59"/>
 </users>
 </file>
 
@@ -2294,7 +2424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2458,7 +2588,7 @@
         <v>43917</v>
       </c>
       <c r="T2" s="9">
-        <f t="shared" ref="T2:T36" si="0">A2*J2+ (A2*H2*0.0015)</f>
+        <f t="shared" ref="T2:T37" si="0">A2*J2+ (A2*H2*0.0015)</f>
         <v>2.5787</v>
       </c>
       <c r="U2" s="11">
@@ -2533,7 +2663,7 @@
         <v>3.2143999999999999</v>
       </c>
       <c r="U3" s="11">
-        <f t="shared" ref="U3:U36" si="1">A3*50</f>
+        <f t="shared" ref="U3:U37" si="1">A3*50</f>
         <v>400</v>
       </c>
       <c r="V3" s="9"/>
@@ -4110,25 +4240,25 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="E30" t="s">
         <v>256</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>354</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -4150,15 +4280,15 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="2">
-        <v>43917</v>
+        <v>43941</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="0"/>
-        <v>5.4600000000000003E-2</v>
+        <f t="shared" ref="T30" si="2">A30*J30+ (A30*H30*0.0015)</f>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="1"/>
-        <v>700</v>
+        <f t="shared" ref="U30" si="3">A30*50</f>
+        <v>50</v>
       </c>
       <c r="V30" s="9"/>
       <c r="X30" s="7"/>
@@ -4168,22 +4298,22 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
         <v>256</v>
       </c>
       <c r="F31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -4212,11 +4342,11 @@
       </c>
       <c r="T31" s="9">
         <f t="shared" si="0"/>
-        <v>4.2900000000000001E-2</v>
+        <v>5.4600000000000003E-2</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="V31" s="9"/>
       <c r="X31" s="7"/>
@@ -4226,22 +4356,22 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>256</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -4253,7 +4383,7 @@
         <v>39</v>
       </c>
       <c r="J32" s="5">
-        <v>1.1000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -4262,7 +4392,7 @@
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="2">
@@ -4270,11 +4400,11 @@
       </c>
       <c r="T32" s="9">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="U32" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="V32" s="9"/>
       <c r="X32" s="7"/>
@@ -4284,22 +4414,22 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E33" t="s">
         <v>256</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -4311,7 +4441,7 @@
         <v>39</v>
       </c>
       <c r="J33" s="5">
-        <v>8.9999999999999998E-4</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -4320,7 +4450,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="2">
@@ -4328,11 +4458,11 @@
       </c>
       <c r="T33" s="9">
         <f t="shared" si="0"/>
-        <v>2.3400000000000004E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="U33" s="11">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="V33" s="9"/>
       <c r="X33" s="7"/>
@@ -4342,22 +4472,22 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
         <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
@@ -4369,7 +4499,7 @@
         <v>39</v>
       </c>
       <c r="J34" s="5">
-        <v>1.1000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -4378,7 +4508,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="2">
@@ -4386,11 +4516,11 @@
       </c>
       <c r="T34" s="9">
         <f t="shared" si="0"/>
-        <v>4.1000000000000003E-3</v>
+        <v>2.3400000000000004E-2</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="V34" s="9"/>
       <c r="X34" s="7"/>
@@ -4400,22 +4530,22 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
         <v>256</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -4427,7 +4557,7 @@
         <v>39</v>
       </c>
       <c r="J35" s="5">
-        <v>1.9E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -4436,7 +4566,7 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="2">
@@ -4444,11 +4574,11 @@
       </c>
       <c r="T35" s="9">
         <f t="shared" si="0"/>
-        <v>3.4299999999999997E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="U35" s="11">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="V35" s="9"/>
       <c r="X35" s="7"/>
@@ -4458,22 +4588,22 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
         <v>256</v>
       </c>
       <c r="F36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -4485,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="J36" s="5">
-        <v>8.9999999999999998E-4</v>
+        <v>1.9E-3</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -4494,7 +4624,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="2">
@@ -4502,11 +4632,11 @@
       </c>
       <c r="T36" s="9">
         <f t="shared" si="0"/>
-        <v>7.7999999999999996E-3</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="V36" s="9"/>
       <c r="X36" s="7"/>
@@ -4515,33 +4645,91 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I37">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="5">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="S37" s="2">
+        <v>43917</v>
+      </c>
+      <c r="T37" s="9">
+        <f t="shared" si="0"/>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="U37" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="V37" s="9"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I38">
         <v>7</v>
       </c>
-      <c r="T37" s="9">
-        <f>SUM(T2:T36)</f>
-        <v>11.0793</v>
-      </c>
-      <c r="V37" s="9"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H38" s="9">
+      <c r="T38" s="9">
+        <f>SUM(T2:T37)</f>
+        <v>11.0832</v>
+      </c>
+      <c r="V38" s="9"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H39" s="9">
         <v>7</v>
       </c>
-      <c r="I38" s="9">
-        <f>3*I37</f>
+      <c r="I39" s="9">
+        <f>3*I38</f>
         <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="I39" s="9">
-        <f>SUM(H38:I38)</f>
-        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="I40" s="9">
-        <f>I39/50</f>
+        <f>SUM(H39:I39)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I41" s="9">
+        <f>I40/50</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -4558,6 +4746,7 @@
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>

--- a/ele/MainBoard/parts.xlsx
+++ b/ele/MainBoard/parts.xlsx
@@ -1314,33 +1314,6 @@
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
 <headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E20A599C-5D52-40E3-BA19-8EED18B308A9}" diskRevisions="1" revisionId="105" version="6">
-  <header guid="{08FCBB00-DC5A-40BD-80BF-EC6CE43DA19E}" dateTime="2020-03-28T18:14:29" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1748B5B3-A782-4C1C-9621-94605AD6F297}" dateTime="2020-03-28T18:14:53" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId2" minRId="1">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FD5D90DF-6B85-4BA1-BBFC-34AFB2C32459}" dateTime="2020-03-29T21:24:46" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId3" minRId="2" maxRId="81">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-    <reviewedList count="1">
-      <reviewed rId="2"/>
-    </reviewedList>
-  </header>
   <header guid="{66346596-386A-4DB2-A9FA-EF15037E4AF8}" dateTime="2020-03-29T21:48:07" maxSheetId="5" userName="Jaroslav PARAL" r:id="rId4" minRId="82" maxRId="89">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -1366,593 +1339,6 @@
     </sheetIdMap>
   </header>
 </headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="1" sId="1" numFmtId="11">
-    <nc r="P15">
-      <v>43</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="2" ua="1" sId="1">
-    <nc r="P15"/>
-  </rcc>
-  <rcft rId="1" ua="1" sheetId="1"/>
-  <rcc rId="3" sId="1">
-    <oc r="H4">
-      <v>17</v>
-    </oc>
-    <nc r="H4">
-      <v>16</v>
-    </nc>
-  </rcc>
-  <rcc rId="4" sId="1" numFmtId="11">
-    <oc r="K5">
-      <v>0.123</v>
-    </oc>
-    <nc r="K5"/>
-  </rcc>
-  <rcc rId="5" sId="1" numFmtId="11">
-    <nc r="R6">
-      <v>0.1203</v>
-    </nc>
-  </rcc>
-  <rcc rId="6" sId="1" numFmtId="11">
-    <oc r="J7">
-      <v>2.3599999999999999E-2</v>
-    </oc>
-    <nc r="J7">
-      <v>2.18E-2</v>
-    </nc>
-  </rcc>
-  <rcc rId="7" sId="1" numFmtId="11">
-    <oc r="O7">
-      <v>1.1299999999999999E-2</v>
-    </oc>
-    <nc r="O7">
-      <v>1.04E-2</v>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="1" numFmtId="19">
-    <oc r="S7">
-      <v>43915</v>
-    </oc>
-    <nc r="S7">
-      <v>43918</v>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="1" xfDxf="1" dxf="1">
-    <oc r="F8" t="inlineStr">
-      <is>
-        <t>C305445</t>
-      </is>
-    </oc>
-    <nc r="F8" t="inlineStr">
-      <is>
-        <t>C8598</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="10" sId="1">
-    <oc r="W11" t="inlineStr">
-      <is>
-        <t>40V 3A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
-      </is>
-    </oc>
-    <nc r="W11" t="inlineStr">
-      <is>
-        <t>40V 3A 400mV @ 1A 550mV @ 3A DO-214AC Schottky Barrier Diodes (SBD) RoHS</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="11" sId="1">
-    <oc r="C17" t="inlineStr">
-      <is>
-        <t>32kHz</t>
-      </is>
-    </oc>
-    <nc r="C17" t="inlineStr">
-      <is>
-        <t>32.768Hz</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="12" sId="1">
-    <oc r="W29" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W29" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="13" sId="1">
-    <oc r="W27" t="inlineStr">
-      <is>
-        <t>CURRENT SENCE CHIP RESISTOR 1W</t>
-      </is>
-    </oc>
-    <nc r="W27" t="inlineStr">
-      <is>
-        <t xml:space="preserve">CURRENT SENCE CHIP RESISTOR ±1% 1W </t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="14" sId="1">
-    <oc r="W28" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W28" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="15" sId="1">
-    <oc r="W30" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W30" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="1">
-    <oc r="W31" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W31" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="17" sId="1">
-    <oc r="W32" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W32" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="18" sId="1">
-    <oc r="W33" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W33" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="1">
-    <oc r="W34" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W34" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="20" sId="1">
-    <oc r="W35" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W35" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="21" sId="1">
-    <oc r="W36" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR</t>
-      </is>
-    </oc>
-    <nc r="W36" t="inlineStr">
-      <is>
-        <t>CHIP RESISTOR ±1% 1/16W</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="22" sId="1" ref="U1:U1048576" action="insertCol"/>
-  <rrc rId="23" sId="1" ref="U1:U1048576" action="insertCol"/>
-  <rcc rId="24" sId="1">
-    <nc r="U2">
-      <f>A2*50</f>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="U1:U1048576">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="25" sId="1">
-    <nc r="U3">
-      <f>A3*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="1">
-    <nc r="U4">
-      <f>A4*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="1">
-    <nc r="U5">
-      <f>A5*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="28" sId="1">
-    <nc r="U6">
-      <f>A6*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="1">
-    <nc r="U7">
-      <f>A7*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="30" sId="1">
-    <nc r="U8">
-      <f>A8*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="31" sId="1">
-    <nc r="U9">
-      <f>A9*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="32" sId="1">
-    <nc r="U10">
-      <f>A10*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="33" sId="1">
-    <nc r="U11">
-      <f>A11*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="34" sId="1">
-    <nc r="U12">
-      <f>A12*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="1">
-    <nc r="U13">
-      <f>A13*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="36" sId="1">
-    <nc r="U14">
-      <f>A14*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="37" sId="1">
-    <nc r="U15">
-      <f>A15*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="1">
-    <nc r="U16">
-      <f>A16*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="39" sId="1">
-    <nc r="U17">
-      <f>A17*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="40" sId="1">
-    <nc r="U18">
-      <f>A18*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="1">
-    <nc r="U19">
-      <f>A19*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="42" sId="1">
-    <nc r="U20">
-      <f>A20*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="43" sId="1">
-    <nc r="U21">
-      <f>A21*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="44" sId="1">
-    <nc r="U22">
-      <f>A22*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="45" sId="1">
-    <nc r="U23">
-      <f>A23*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="1">
-    <nc r="U24">
-      <f>A24*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="1">
-    <nc r="U25">
-      <f>A25*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="1">
-    <nc r="U26">
-      <f>A26*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="1">
-    <nc r="U27">
-      <f>A27*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="1">
-    <nc r="U28">
-      <f>A28*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="51" sId="1">
-    <nc r="U29">
-      <f>A29*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="1">
-    <nc r="U30">
-      <f>A30*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="1">
-    <nc r="U31">
-      <f>A31*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="54" sId="1">
-    <nc r="U32">
-      <f>A32*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="55" sId="1">
-    <nc r="U33">
-      <f>A33*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="56" sId="1">
-    <nc r="U34">
-      <f>A34*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="57" sId="1">
-    <nc r="U35">
-      <f>A35*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="58" sId="1">
-    <nc r="U36">
-      <f>A36*50</f>
-    </nc>
-  </rcc>
-  <rcc rId="59" sId="1" numFmtId="11">
-    <nc r="K2">
-      <v>2.4287000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="60" sId="1" numFmtId="11">
-    <nc r="M2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="61" sId="1" numFmtId="11">
-    <nc r="N2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="62" sId="1" numFmtId="11">
-    <nc r="O2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="63" sId="1" numFmtId="11">
-    <nc r="P2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="64" sId="1" numFmtId="11">
-    <nc r="Q2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="65" sId="1" numFmtId="11">
-    <nc r="R2">
-      <v>2.0653000000000001</v>
-    </nc>
-  </rcc>
-  <rcc rId="66" sId="1">
-    <nc r="V2">
-      <f>IF(U2&lt;10,J2,IF(U2&lt;30,K2,IF(U2&lt;50,L2,IF(U2&lt;100,M2,IF(U2&lt;200,N2,IF(U2&lt;500,O2,IF(U2&lt;1000,P2,IF(U2&lt;2000,Q2,R2))))))))</f>
-    </nc>
-  </rcc>
-  <rcc rId="67" sId="1">
-    <nc r="U1" t="inlineStr">
-      <is>
-        <t>Pcs for 50 PCB</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="68" sId="2" ref="C1:C1048576" action="insertCol"/>
-  <rcc rId="69" sId="2">
-    <nc r="C1" t="inlineStr">
-      <is>
-        <t>PRICE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="70" sId="2">
-    <nc r="E1" t="inlineStr">
-      <is>
-        <t>PRICE_DATE</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="E1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="71" sId="2" ref="D1:D1048576" action="insertCol"/>
-  <rm rId="72" sheetId="2" source="F1:F1048576" destination="D1:D1048576" sourceSheetId="2">
-    <rfmt sheetId="2" xfDxf="1" sqref="D1:D1048576" start="0" length="0"/>
-    <rfmt sheetId="2" sqref="D1" start="0" length="0">
-      <dxf>
-        <font>
-          <b/>
-          <sz val="11"/>
-          <color theme="1"/>
-          <name val="Calibri"/>
-          <scheme val="minor"/>
-        </font>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rrc rId="73" sId="2" ref="F1:F1048576" action="deleteCol">
-    <rfmt sheetId="2" xfDxf="1" sqref="F1:F1048576" start="0" length="0"/>
-  </rrc>
-  <rcc rId="74" sId="2">
-    <nc r="C2">
-      <v>0.55000000000000004</v>
-    </nc>
-  </rcc>
-  <rcc rId="75" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="D2">
-      <v>43919</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="76" sId="2">
-    <nc r="F1" t="inlineStr">
-      <is>
-        <t>URL</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="F1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="77" sId="2" xfDxf="1" dxf="1">
-    <nc r="F2" t="inlineStr">
-      <is>
-        <t>https://www.aliexpress.com/item/32821900056.html?spm=a2g0s.9042311.0.0.27424c4d7QpKiR</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="2" sqref="C1:C1048576">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="78" sId="2" numFmtId="11">
-    <nc r="C3">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="79" sId="2" odxf="1" dxf="1" numFmtId="19">
-    <nc r="D3">
-      <v>43919</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="80" sId="2" xfDxf="1" dxf="1">
-    <nc r="F3" t="inlineStr">
-      <is>
-        <t>https://www.aliexpress.com/item/33042530151.html?spm=a2g0o.detail.1000060.3.413116e3UwnGSp&amp;gps-id=pcDetailBottomMoreThisSeller&amp;scm=1007.14977.161855.0&amp;scm_id=1007.14977.161855.0&amp;scm-url=1007.14977.161855.0&amp;pvid=e7acc9bf-7b2c-452a-9ec7-bda6f01c289c&amp;_t=gps-id:pcDetailBottomMoreThisSeller,scm-url:1007.14977.161855.0,pvid:e7acc9bf-7b2c-452a-9ec7-bda6f01c289c,tpp_buckets:668%230%23165478%2314_668%23808%234093%23880_668%23888%233325%234</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="81" sId="1">
-    <nc r="V1" t="inlineStr">
-      <is>
-        <t>Price if 50 PCB</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
